--- a/output/ejecucion_2/gridsearch_results/base0/b0_ci_results_gs_xgb_o.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base0/b0_ci_results_gs_xgb_o.xlsx
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>112.2703557491302</v>
+        <v>97.25956416130066</v>
       </c>
       <c r="C2">
-        <v>0.9148970000239448</v>
+        <v>0.7527976803821724</v>
       </c>
       <c r="D2">
-        <v>0.9625336647033691</v>
+        <v>0.9662322044372559</v>
       </c>
       <c r="E2">
-        <v>0.04567472709069675</v>
+        <v>0.02312501834607601</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>0.7067307692307693</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="K2">
-        <v>0.7307692307692307</v>
+        <v>0.6081871345029239</v>
       </c>
       <c r="L2">
-        <v>0.7053140096618358</v>
+        <v>0.695906432748538</v>
       </c>
       <c r="M2">
-        <v>0.7101449275362319</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="N2">
-        <v>0.7198067632850241</v>
+        <v>0.6549707602339181</v>
       </c>
       <c r="O2">
-        <v>0.7145531400966184</v>
+        <v>0.6701754385964913</v>
       </c>
       <c r="P2">
-        <v>0.009555579610253894</v>
+        <v>0.03500965975928835</v>
       </c>
       <c r="Q2">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>216.5610294342041</v>
+        <v>193.2165286064148</v>
       </c>
       <c r="C3">
-        <v>2.803496636085356</v>
+        <v>1.584161975291451</v>
       </c>
       <c r="D3">
-        <v>1.305161762237549</v>
+        <v>1.010275411605835</v>
       </c>
       <c r="E3">
-        <v>0.1760597618778954</v>
+        <v>0.1234121021173341</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -611,28 +611,28 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <v>0.6923076923076923</v>
+        <v>0.7251461988304093</v>
       </c>
       <c r="K3">
-        <v>0.7259615384615384</v>
+        <v>0.6198830409356725</v>
       </c>
       <c r="L3">
-        <v>0.7053140096618358</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="M3">
-        <v>0.7101449275362319</v>
+        <v>0.6549707602339181</v>
       </c>
       <c r="N3">
-        <v>0.7294685990338164</v>
+        <v>0.672514619883041</v>
       </c>
       <c r="O3">
-        <v>0.712639353400223</v>
+        <v>0.672514619883041</v>
       </c>
       <c r="P3">
-        <v>0.01366721176730473</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>420.6237230777741</v>
+        <v>371.7606033802032</v>
       </c>
       <c r="C4">
-        <v>2.750552388015654</v>
+        <v>3.168798320844412</v>
       </c>
       <c r="D4">
-        <v>1.052104568481445</v>
+        <v>1.021530246734619</v>
       </c>
       <c r="E4">
-        <v>0.08872840027229134</v>
+        <v>0.1290915228128792</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -664,28 +664,28 @@
         <v>18</v>
       </c>
       <c r="J4">
-        <v>0.6971153846153846</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="K4">
-        <v>0.75</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L4">
-        <v>0.7101449275362319</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="M4">
-        <v>0.6956521739130435</v>
+        <v>0.6549707602339181</v>
       </c>
       <c r="N4">
-        <v>0.7439613526570048</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="O4">
-        <v>0.719374767744333</v>
+        <v>0.6748538011695906</v>
       </c>
       <c r="P4">
-        <v>0.02317687016839977</v>
+        <v>0.04462873456921385</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>108.5091200351715</v>
+        <v>95.95504670143127</v>
       </c>
       <c r="C5">
-        <v>2.830570800304922</v>
+        <v>1.253701205062879</v>
       </c>
       <c r="D5">
-        <v>0.9846142768859864</v>
+        <v>0.9608968734741211</v>
       </c>
       <c r="E5">
-        <v>0.02992642926739219</v>
+        <v>0.0140618445553067</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -717,28 +717,28 @@
         <v>19</v>
       </c>
       <c r="J5">
-        <v>0.7067307692307693</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="K5">
-        <v>0.7307692307692307</v>
+        <v>0.6081871345029239</v>
       </c>
       <c r="L5">
-        <v>0.7053140096618358</v>
+        <v>0.695906432748538</v>
       </c>
       <c r="M5">
-        <v>0.7101449275362319</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="N5">
-        <v>0.7198067632850241</v>
+        <v>0.6549707602339181</v>
       </c>
       <c r="O5">
-        <v>0.7145531400966184</v>
+        <v>0.6701754385964913</v>
       </c>
       <c r="P5">
-        <v>0.009555579610253894</v>
+        <v>0.03500965975928835</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,16 +746,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>209.7420753479004</v>
+        <v>187.6987954139709</v>
       </c>
       <c r="C6">
-        <v>1.201916693132441</v>
+        <v>1.01061377056972</v>
       </c>
       <c r="D6">
-        <v>1.049100542068481</v>
+        <v>0.9766998291015625</v>
       </c>
       <c r="E6">
-        <v>0.1160599683728411</v>
+        <v>0.03037780577802829</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -770,28 +770,28 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>0.6923076923076923</v>
+        <v>0.7251461988304093</v>
       </c>
       <c r="K6">
-        <v>0.7259615384615384</v>
+        <v>0.6198830409356725</v>
       </c>
       <c r="L6">
-        <v>0.7053140096618358</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="M6">
-        <v>0.7101449275362319</v>
+        <v>0.6549707602339181</v>
       </c>
       <c r="N6">
-        <v>0.7294685990338164</v>
+        <v>0.672514619883041</v>
       </c>
       <c r="O6">
-        <v>0.712639353400223</v>
+        <v>0.672514619883041</v>
       </c>
       <c r="P6">
-        <v>0.01366721176730473</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>415.0223035335541</v>
+        <v>368.9238994598389</v>
       </c>
       <c r="C7">
-        <v>2.469966641517706</v>
+        <v>1.319249664022278</v>
       </c>
       <c r="D7">
-        <v>0.9916565418243408</v>
+        <v>0.9437858581542968</v>
       </c>
       <c r="E7">
-        <v>0.06999412978652723</v>
+        <v>0.003731690985331589</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -823,28 +823,28 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>0.6971153846153846</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="K7">
-        <v>0.75</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L7">
-        <v>0.7101449275362319</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="M7">
-        <v>0.6956521739130435</v>
+        <v>0.6549707602339181</v>
       </c>
       <c r="N7">
-        <v>0.7439613526570048</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="O7">
-        <v>0.719374767744333</v>
+        <v>0.6748538011695906</v>
       </c>
       <c r="P7">
-        <v>0.02317687016839977</v>
+        <v>0.04462873456921385</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,16 +852,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>107.0574327468872</v>
+        <v>96.0635157585144</v>
       </c>
       <c r="C8">
-        <v>0.6737527159076284</v>
+        <v>1.007650687502769</v>
       </c>
       <c r="D8">
-        <v>0.9976960182189941</v>
+        <v>1.033104848861694</v>
       </c>
       <c r="E8">
-        <v>0.02272282876825399</v>
+        <v>0.1274844277002802</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -876,28 +876,28 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <v>0.7067307692307693</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="K8">
-        <v>0.7307692307692307</v>
+        <v>0.6081871345029239</v>
       </c>
       <c r="L8">
-        <v>0.7053140096618358</v>
+        <v>0.695906432748538</v>
       </c>
       <c r="M8">
-        <v>0.7101449275362319</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="N8">
-        <v>0.7198067632850241</v>
+        <v>0.6549707602339181</v>
       </c>
       <c r="O8">
-        <v>0.7145531400966184</v>
+        <v>0.6701754385964913</v>
       </c>
       <c r="P8">
-        <v>0.009555579610253894</v>
+        <v>0.03500965975928835</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>208.9060968875885</v>
+        <v>184.7123771190643</v>
       </c>
       <c r="C9">
-        <v>1.420407843927065</v>
+        <v>2.22242808129428</v>
       </c>
       <c r="D9">
-        <v>0.983783769607544</v>
+        <v>1.031090116500855</v>
       </c>
       <c r="E9">
-        <v>0.01468341128125932</v>
+        <v>0.1271741464987291</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -929,28 +929,28 @@
         <v>23</v>
       </c>
       <c r="J9">
-        <v>0.6923076923076923</v>
+        <v>0.7251461988304093</v>
       </c>
       <c r="K9">
-        <v>0.7259615384615384</v>
+        <v>0.6198830409356725</v>
       </c>
       <c r="L9">
-        <v>0.7053140096618358</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="M9">
-        <v>0.7101449275362319</v>
+        <v>0.6549707602339181</v>
       </c>
       <c r="N9">
-        <v>0.7294685990338164</v>
+        <v>0.672514619883041</v>
       </c>
       <c r="O9">
-        <v>0.712639353400223</v>
+        <v>0.672514619883041</v>
       </c>
       <c r="P9">
-        <v>0.01366721176730473</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>413.2384325027466</v>
+        <v>362.1925025939942</v>
       </c>
       <c r="C10">
-        <v>1.24129674008304</v>
+        <v>2.034981903479518</v>
       </c>
       <c r="D10">
-        <v>1.013742113113403</v>
+        <v>0.986182689666748</v>
       </c>
       <c r="E10">
-        <v>0.03467908859770107</v>
+        <v>0.03550121344016233</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -982,28 +982,28 @@
         <v>24</v>
       </c>
       <c r="J10">
-        <v>0.6971153846153846</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="K10">
-        <v>0.75</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L10">
-        <v>0.7101449275362319</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="M10">
-        <v>0.6956521739130435</v>
+        <v>0.6549707602339181</v>
       </c>
       <c r="N10">
-        <v>0.7439613526570048</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="O10">
-        <v>0.719374767744333</v>
+        <v>0.6748538011695906</v>
       </c>
       <c r="P10">
-        <v>0.02317687016839977</v>
+        <v>0.04462873456921385</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>166.7978942394257</v>
+        <v>144.7844655036926</v>
       </c>
       <c r="C11">
-        <v>0.7044812159082922</v>
+        <v>1.382558774848798</v>
       </c>
       <c r="D11">
-        <v>1.020150709152222</v>
+        <v>0.9461830139160157</v>
       </c>
       <c r="E11">
-        <v>0.1047519369335493</v>
+        <v>0.02778496890510089</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1035,28 +1035,28 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>0.6826923076923077</v>
+        <v>0.7251461988304093</v>
       </c>
       <c r="K11">
-        <v>0.7355769230769231</v>
+        <v>0.6081871345029239</v>
       </c>
       <c r="L11">
-        <v>0.6956521739130435</v>
+        <v>0.6608187134502924</v>
       </c>
       <c r="M11">
-        <v>0.6811594202898551</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="N11">
-        <v>0.7294685990338164</v>
+        <v>0.6783625730994152</v>
       </c>
       <c r="O11">
-        <v>0.7049098848011892</v>
+        <v>0.6748538011695906</v>
       </c>
       <c r="P11">
-        <v>0.02318192480941523</v>
+        <v>0.03976608187134503</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>327.4999433040619</v>
+        <v>280.0421406269073</v>
       </c>
       <c r="C12">
-        <v>1.846994630497275</v>
+        <v>0.9048531301649925</v>
       </c>
       <c r="D12">
-        <v>0.9830371379852295</v>
+        <v>1.173026323318481</v>
       </c>
       <c r="E12">
-        <v>0.04711828399795255</v>
+        <v>0.1239467541938699</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1088,25 +1088,25 @@
         <v>26</v>
       </c>
       <c r="J12">
-        <v>0.6923076923076923</v>
+        <v>0.7134502923976608</v>
       </c>
       <c r="K12">
-        <v>0.7355769230769231</v>
+        <v>0.5847953216374269</v>
       </c>
       <c r="L12">
-        <v>0.6859903381642513</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="M12">
-        <v>0.6714975845410628</v>
+        <v>0.7076023391812866</v>
       </c>
       <c r="N12">
-        <v>0.7198067632850241</v>
+        <v>0.6549707602339181</v>
       </c>
       <c r="O12">
-        <v>0.7010358602749907</v>
+        <v>0.6690058479532164</v>
       </c>
       <c r="P12">
-        <v>0.02332590921821827</v>
+        <v>0.04687126294623131</v>
       </c>
       <c r="Q12">
         <v>16</v>
@@ -1117,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>635.3471499919891</v>
+        <v>540.5873781681061</v>
       </c>
       <c r="C13">
-        <v>5.281529809887716</v>
+        <v>3.080923152560644</v>
       </c>
       <c r="D13">
-        <v>1.055706214904785</v>
+        <v>0.9898348808288574</v>
       </c>
       <c r="E13">
-        <v>0.1038272692928888</v>
+        <v>0.08283058639919517</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1141,28 +1141,28 @@
         <v>27</v>
       </c>
       <c r="J13">
-        <v>0.6971153846153846</v>
+        <v>0.7309941520467836</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.5906432748538012</v>
       </c>
       <c r="L13">
-        <v>0.7053140096618358</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.6714975845410628</v>
+        <v>0.7251461988304093</v>
       </c>
       <c r="N13">
-        <v>0.7198067632850241</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O13">
-        <v>0.7087467484206614</v>
+        <v>0.6760233918128654</v>
       </c>
       <c r="P13">
-        <v>0.02591805248761708</v>
+        <v>0.05079310117101394</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1170,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>165.8787356376648</v>
+        <v>143.9262855529785</v>
       </c>
       <c r="C14">
-        <v>1.19438743085327</v>
+        <v>1.491898179360678</v>
       </c>
       <c r="D14">
-        <v>0.9486599922180176</v>
+        <v>1.075334930419922</v>
       </c>
       <c r="E14">
-        <v>0.03190181290284819</v>
+        <v>0.1803250783778788</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1194,28 +1194,28 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>0.6826923076923077</v>
+        <v>0.7251461988304093</v>
       </c>
       <c r="K14">
-        <v>0.7355769230769231</v>
+        <v>0.6081871345029239</v>
       </c>
       <c r="L14">
-        <v>0.6956521739130435</v>
+        <v>0.6608187134502924</v>
       </c>
       <c r="M14">
-        <v>0.6811594202898551</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="N14">
-        <v>0.7294685990338164</v>
+        <v>0.6783625730994152</v>
       </c>
       <c r="O14">
-        <v>0.7049098848011892</v>
+        <v>0.6748538011695906</v>
       </c>
       <c r="P14">
-        <v>0.02318192480941523</v>
+        <v>0.03976608187134503</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>326.2540174007416</v>
+        <v>280.9537870407104</v>
       </c>
       <c r="C15">
-        <v>2.427723513632959</v>
+        <v>0.7425645618745271</v>
       </c>
       <c r="D15">
-        <v>0.9957287788391114</v>
+        <v>0.9150830268859863</v>
       </c>
       <c r="E15">
-        <v>0.1216287433292479</v>
+        <v>0.009408836164922503</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1247,25 +1247,25 @@
         <v>29</v>
       </c>
       <c r="J15">
-        <v>0.6923076923076923</v>
+        <v>0.7134502923976608</v>
       </c>
       <c r="K15">
-        <v>0.7355769230769231</v>
+        <v>0.5847953216374269</v>
       </c>
       <c r="L15">
-        <v>0.6859903381642513</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="M15">
-        <v>0.6714975845410628</v>
+        <v>0.7076023391812866</v>
       </c>
       <c r="N15">
-        <v>0.7198067632850241</v>
+        <v>0.6549707602339181</v>
       </c>
       <c r="O15">
-        <v>0.7010358602749907</v>
+        <v>0.6690058479532164</v>
       </c>
       <c r="P15">
-        <v>0.02332590921821827</v>
+        <v>0.04687126294623131</v>
       </c>
       <c r="Q15">
         <v>16</v>
@@ -1276,16 +1276,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>632.7233979701996</v>
+        <v>542.6661983966827</v>
       </c>
       <c r="C16">
-        <v>2.710749455654752</v>
+        <v>2.605783449308912</v>
       </c>
       <c r="D16">
-        <v>0.9959234237670899</v>
+        <v>0.9872122764587402</v>
       </c>
       <c r="E16">
-        <v>0.03381680521001195</v>
+        <v>0.0711649755272738</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1300,28 +1300,28 @@
         <v>30</v>
       </c>
       <c r="J16">
-        <v>0.6971153846153846</v>
+        <v>0.7309941520467836</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.5906432748538012</v>
       </c>
       <c r="L16">
-        <v>0.7053140096618358</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.6714975845410628</v>
+        <v>0.7251461988304093</v>
       </c>
       <c r="N16">
-        <v>0.7198067632850241</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O16">
-        <v>0.7087467484206614</v>
+        <v>0.6760233918128654</v>
       </c>
       <c r="P16">
-        <v>0.02591805248761708</v>
+        <v>0.05079310117101394</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>166.7920494556427</v>
+        <v>143.088559961319</v>
       </c>
       <c r="C17">
-        <v>1.207251973951159</v>
+        <v>0.6988840550255948</v>
       </c>
       <c r="D17">
-        <v>1.054846048355103</v>
+        <v>1.01957745552063</v>
       </c>
       <c r="E17">
-        <v>0.1557907174055895</v>
+        <v>0.1249629178655173</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1353,28 +1353,28 @@
         <v>31</v>
       </c>
       <c r="J17">
-        <v>0.6826923076923077</v>
+        <v>0.7251461988304093</v>
       </c>
       <c r="K17">
-        <v>0.7355769230769231</v>
+        <v>0.6081871345029239</v>
       </c>
       <c r="L17">
-        <v>0.6956521739130435</v>
+        <v>0.6608187134502924</v>
       </c>
       <c r="M17">
-        <v>0.6811594202898551</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="N17">
-        <v>0.7294685990338164</v>
+        <v>0.6783625730994152</v>
       </c>
       <c r="O17">
-        <v>0.7049098848011892</v>
+        <v>0.6748538011695906</v>
       </c>
       <c r="P17">
-        <v>0.02318192480941523</v>
+        <v>0.03976608187134503</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>325.1008442878723</v>
+        <v>281.4950689315796</v>
       </c>
       <c r="C18">
-        <v>1.978863997065202</v>
+        <v>1.718722566403527</v>
       </c>
       <c r="D18">
-        <v>1.018286657333374</v>
+        <v>0.9799116134643555</v>
       </c>
       <c r="E18">
-        <v>0.06717013830077924</v>
+        <v>0.09180529056139601</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1406,25 +1406,25 @@
         <v>32</v>
       </c>
       <c r="J18">
-        <v>0.6923076923076923</v>
+        <v>0.7134502923976608</v>
       </c>
       <c r="K18">
-        <v>0.7355769230769231</v>
+        <v>0.5847953216374269</v>
       </c>
       <c r="L18">
-        <v>0.6859903381642513</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="M18">
-        <v>0.6714975845410628</v>
+        <v>0.7076023391812866</v>
       </c>
       <c r="N18">
-        <v>0.7198067632850241</v>
+        <v>0.6549707602339181</v>
       </c>
       <c r="O18">
-        <v>0.7010358602749907</v>
+        <v>0.6690058479532164</v>
       </c>
       <c r="P18">
-        <v>0.02332590921821827</v>
+        <v>0.04687126294623131</v>
       </c>
       <c r="Q18">
         <v>16</v>
@@ -1435,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>532.1307380199432</v>
+        <v>455.4692974090576</v>
       </c>
       <c r="C19">
-        <v>24.22975204831588</v>
+        <v>19.18992232435417</v>
       </c>
       <c r="D19">
-        <v>0.6003550052642822</v>
+        <v>0.6252786159515381</v>
       </c>
       <c r="E19">
-        <v>0.1097463317345268</v>
+        <v>0.1170188300016989</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1459,28 +1459,28 @@
         <v>33</v>
       </c>
       <c r="J19">
-        <v>0.6971153846153846</v>
+        <v>0.7309941520467836</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.5906432748538012</v>
       </c>
       <c r="L19">
-        <v>0.7053140096618358</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.6714975845410628</v>
+        <v>0.7251461988304093</v>
       </c>
       <c r="N19">
-        <v>0.7198067632850241</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O19">
-        <v>0.7087467484206614</v>
+        <v>0.6760233918128654</v>
       </c>
       <c r="P19">
-        <v>0.02591805248761708</v>
+        <v>0.05079310117101394</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
